--- a/db.xlsx
+++ b/db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7485"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,26 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>Users</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Api_Token</t>
-  </si>
-  <si>
     <t>Bela</t>
   </si>
   <si>
@@ -89,36 +74,9 @@
     <t>nsjdfnbihf2400</t>
   </si>
   <si>
-    <t>No_Kendaraan</t>
-  </si>
-  <si>
     <t>PT/PO</t>
   </si>
   <si>
-    <t>Jurusan</t>
-  </si>
-  <si>
-    <t>MasaBerlaku_Kir</t>
-  </si>
-  <si>
-    <t>MasaBerlaku_Trayek</t>
-  </si>
-  <si>
-    <t>No_Hp</t>
-  </si>
-  <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>Foto_Profile</t>
-  </si>
-  <si>
-    <t>Biodata User</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -164,21 +122,6 @@
     <t>nsjdfnbihf2401</t>
   </si>
   <si>
-    <t>Jam</t>
-  </si>
-  <si>
-    <t>Lokasi</t>
-  </si>
-  <si>
-    <t>Longitufe</t>
-  </si>
-  <si>
-    <t>Langitude</t>
-  </si>
-  <si>
-    <t>Biodata Kernet</t>
-  </si>
-  <si>
     <t>JAWA INDAH</t>
   </si>
   <si>
@@ -236,7 +179,73 @@
     <t>23cr34 35</t>
   </si>
   <si>
-    <t>Foto_Bus</t>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>.9999-12-31 23:59:59</t>
+  </si>
+  <si>
+    <t>.9999-12-31 23:59:60</t>
+  </si>
+  <si>
+    <t>.9999-12-31 23:59:61</t>
+  </si>
+  <si>
+    <t>validity_period_trayek</t>
+  </si>
+  <si>
+    <t>validity_period_kir</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>bus_destination</t>
+  </si>
+  <si>
+    <t>number_plate</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>biodata_kernet</t>
+  </si>
+  <si>
+    <t>biodata_user</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>api_token</t>
+  </si>
+  <si>
+    <t>langitude</t>
+  </si>
+  <si>
+    <t>id_biodata_kernet</t>
+  </si>
+  <si>
+    <t>id_users</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -320,18 +329,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,9 +366,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,6 +378,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -636,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P19"/>
+  <dimension ref="A2:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -651,390 +692,422 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
     <col min="12" max="12" width="32.7109375" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="7" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="Q6" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="I11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="K11" s="1">
+        <v>8123456789</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="4">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8123456789</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="4">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
         <v>1</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4">
-        <v>6</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1">
-        <v>812345</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="5">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="1">
-        <v>812345</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="5">
-        <v>2</v>
       </c>
       <c r="I17" s="1">
         <v>121221</v>
@@ -1042,10 +1115,16 @@
       <c r="J17" s="1">
         <v>3435</v>
       </c>
-    </row>
-    <row r="18" spans="8:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="5">
-        <v>6</v>
+      <c r="K17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <v>23434</v>
@@ -1053,10 +1132,16 @@
       <c r="J18" s="1">
         <v>65657</v>
       </c>
-    </row>
-    <row r="19" spans="8:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="5">
-        <v>7</v>
+      <c r="K18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="4">
+        <v>3</v>
       </c>
       <c r="I19" s="1">
         <v>56667</v>
@@ -1064,13 +1149,19 @@
       <c r="J19" s="1">
         <v>45446</v>
       </c>
+      <c r="K19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H9:M9"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H9:N9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -1085,5 +1176,6 @@
     <hyperlink ref="C10" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>